--- a/YL_growth_media.xlsx
+++ b/YL_growth_media.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>This nutrient is set to 0</t>
+    <t>This C-source is set to 1000</t>
   </si>
   <si>
     <t>objective value</t>

--- a/YL_growth_media.xlsx
+++ b/YL_growth_media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>EX_xyl_D_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>EX_fru_LPAREN_e_RPAREN_</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>41.64483387572845</v>
+        <v>97.26258695652183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +393,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.08000000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.08000000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +409,15 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>33.35575989905576</v>
+        <v>82.98706751054851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>99.02971645919772</v>
       </c>
     </row>
   </sheetData>
